--- a/Story_Mapping_FCA1.xlsx
+++ b/Story_Mapping_FCA1.xlsx
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Features</t>
-  </si>
-  <si>
-    <t>Stories</t>
   </si>
   <si>
     <t xml:space="preserve">Finance Company Automation </t>
@@ -72,15 +69,9 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Gold loan</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Branch manage</t>
-  </si>
-  <si>
     <t>Add employee</t>
   </si>
   <si>
@@ -108,18 +99,12 @@
     <t>Manage chits auction</t>
   </si>
   <si>
-    <t>Details entry</t>
-  </si>
-  <si>
     <t>View loan details</t>
   </si>
   <si>
     <t>View chits</t>
   </si>
   <si>
-    <t>Add branch</t>
-  </si>
-  <si>
     <t>customer registration</t>
   </si>
   <si>
@@ -133,6 +118,69 @@
   </si>
   <si>
     <t>Loan report</t>
+  </si>
+  <si>
+    <t>Apply for loan</t>
+  </si>
+  <si>
+    <t>Application form</t>
+  </si>
+  <si>
+    <t>Manage loan</t>
+  </si>
+  <si>
+    <t>Forward button to manager</t>
+  </si>
+  <si>
+    <t>Add Branch</t>
+  </si>
+  <si>
+    <t>Manage the whole site</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Manage branch</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Add the manger details</t>
+  </si>
+  <si>
+    <t>Add the employee details</t>
+  </si>
+  <si>
+    <t>Add diffeeent types of chits</t>
+  </si>
+  <si>
+    <t>Add the various loans provided by the finance</t>
+  </si>
+  <si>
+    <t>Approve the loan of the  customer who meets the trems and condition</t>
+  </si>
+  <si>
+    <t>&lt;name&gt; &lt;district&gt;&lt;city&gt;&lt;address&gt; &lt;phnno&gt;&lt;opdate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;branch&gt;&lt;name&gt;&lt;address&gt;&lt;phnno&gt;&lt;email&gt;</t>
+  </si>
+  <si>
+    <t>&lt;chit_amt&gt;&lt;chit_no&gt;&lt;insttal_amt&gt;&lt;details&gt;</t>
+  </si>
+  <si>
+    <t>Approve button</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;&lt;details&gt;&lt;interstrate&gt;&lt;duration&gt;</t>
+  </si>
+  <si>
+    <t>Add the details of the customer</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;&lt;address&gt;&lt;phn&gt;&lt;branch&gt;&lt;email&gt;</t>
   </si>
 </sst>
 </file>
@@ -183,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,18 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
@@ -544,7 +593,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -579,134 +628,213 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>12</v>
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
